--- a/data/mb/Manitoba pigs isotope Core 1 April 2014.xlsx
+++ b/data/mb/Manitoba pigs isotope Core 1 April 2014.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="123820"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC461402-CADE-482C-A10A-D489A78BA07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9947FEE2-F95E-4DA5-8DDC-D10DFDDF7F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
-  <si>
-    <t>LAKE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
   <si>
     <t>SAMPLE</t>
   </si>
@@ -99,9 +96,6 @@
     <t>PERCENTC</t>
   </si>
   <si>
-    <t>C_N_RATIO</t>
-  </si>
-  <si>
     <t>CHL_PHEO(1)</t>
   </si>
   <si>
@@ -109,6 +103,18 @@
   </si>
   <si>
     <t>Manitoba 1</t>
+  </si>
+  <si>
+    <t>CNRATIO</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>CYANOS</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,113 +507,121 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="30" width="24" customWidth="1"/>
+    <col min="2" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875"/>
+    <col min="6" max="32" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -618,12 +632,12 @@
       <c r="D2">
         <v>2008</v>
       </c>
-      <c r="F2">
+      <c r="E2">
+        <v>18.150681899999999</v>
+      </c>
+      <c r="G2">
         <v>171.46503630000001</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -631,72 +645,75 @@
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>17.680865260000001</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>9.0826028480000005</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>49.871406049999997</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>133.71759349999999</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>98.990823230000004</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>17.23382866</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>373.70482129999999</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>80.304008659999994</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>6.0508411930000001</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>86.497619959999994</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>99.975545400000001</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>60.423752559999997</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3.737962317</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>5.9</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>-17.18</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>0.98</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>11.87</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>14.13</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>3.7379623167327098</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -708,87 +725,90 @@
         <v>2005</v>
       </c>
       <c r="E3">
+        <v>7.4684637</v>
+      </c>
+      <c r="F3">
         <v>1148401</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>189.2000334</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>24.515223079999998</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>131.3241452</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>58.832768190000003</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>30.750897399999999</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>12.081874060000001</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>72.984952759999999</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>159.49752129999999</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>105.5502724</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>20.39460884</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>344.42255540000002</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>65.482640910000001</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>7.8364534590000003</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>121.2726012</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>108.650747</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>82.436531619999997</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3.1699971229999999</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>24.056150720000002</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>5.84</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-16.37</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.86</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>11.43</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>15.44</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>3.1699971229834301</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>24.056150719536902</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -799,85 +819,88 @@
       <c r="D4">
         <v>2003</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>136.9356003</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.6034150399999998</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>36.892145620000001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>43.20280657</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>21.286469480000001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>12.800318280000001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>69.917182969999999</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>144.04183169999999</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>89.240035710000001</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>9.2774764580000006</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>282.41677340000001</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>61.110631249999997</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>7.3132453269999997</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>71.612060639999996</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>107.7423533</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>77.582852160000002</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2.6212233619999998</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>19.052272729999999</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5.91</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-15.51</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>0.79</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>11.19</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>16.600000000000001</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AE4">
         <v>2.6212233606373201</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>19.052272736896001</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -888,88 +911,88 @@
       <c r="D5">
         <v>2001</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1119583</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>120.2165777</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>13.797062800000001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>47.265416049999999</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>39.276623319999999</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>26.060295629999999</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>11.785780969999999</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>76.871687350000002</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>153.99866249999999</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>99.752508489999997</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>19.465553320000001</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>255.04588409999999</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>56.18232442</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6.723463873</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>95.548610100000005</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>95.823842769999999</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>66.107166079999999</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2.6616119409999999</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>16.186124450000001</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>5.8</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-15.78</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.81</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>11.59</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>16.64</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>2.6616119404871998</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>16.186124449967</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -980,85 +1003,88 @@
       <c r="D6">
         <v>1998</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>93.969307430000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7.0990920969999998</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>42.202697059999998</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>41.137932149999997</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>25.561180480000001</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>12.84058579</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>82.36469692</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>165.77055989999999</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>107.06946960000001</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>21.217824480000001</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>275.27098089999998</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>58.581306310000002</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>9.9316201199999998</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>111.5644558</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>102.13776679999999</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>80.243146390000007</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2.6950949629999998</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>15.763118820000001</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>5.71</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-16.09</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.83</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>11.58</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>16.350000000000001</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AE6">
         <v>2.6950949636388599</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>15.763118815359499</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1070,87 +1096,90 @@
         <v>1995</v>
       </c>
       <c r="E7">
+        <v>2.6984341000000001</v>
+      </c>
+      <c r="F7">
         <v>1113898</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>60.150503780000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3.0717600250000001</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9.2152800740000007</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>18.730201520000001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>20.295846260000001</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>10.42591006</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>69.448272799999998</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>146.85925810000001</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>101.507822</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>16.09490147</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>197.67381399999999</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>43.972099900000003</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7.4548387460000001</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>100.9858097</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>89.330404040000005</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>70.506240000000005</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2.2128391349999998</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8.2608906040000001</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>5.85</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-16.22</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.86</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>12.38</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>16.71</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>2.2128391349431999</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>8.2608906038277592</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1161,88 +1190,88 @@
       <c r="D8">
         <v>1991</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1091942</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>60.706984570000003</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.7720713240000001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.2106517719999998</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>15.17699049</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>20.98318909</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>10.77899583</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>76.47970205</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>164.63257350000001</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>110.3648604</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>16.076778239999999</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>206.81328490000001</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>46.525809389999999</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>7.8877835569999997</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>85.027710290000002</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>99.314131009999997</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>75.441150219999997</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2.0824154909999999</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>6.0252149289999997</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>5.9</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-16.579999999999998</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.84</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>11.84</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>16.38</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>2.0824154910963899</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>6.0252149297798301</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1254,87 +1283,93 @@
         <v>1987</v>
       </c>
       <c r="E9">
+        <v>1.3448975000000001</v>
+      </c>
+      <c r="F9">
         <v>1063015</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>82.079296769999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>9.8789677260000008</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>16.62733579</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>29.38969152</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>27.38384812</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>13.773707419999999</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>86.835566979999996</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>173.88841310000001</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>117.14136910000001</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>20.151107530000001</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>175.4513704</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>42.635638270000001</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>7.2282608489999998</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>95.659473059999996</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>95.975834180000007</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>66.604121030000002</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1.828078619</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>10.70671735</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>5.69</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-16.440000000000001</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>0.84</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>11.64</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>16.190000000000001</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AE9">
         <v>1.82807861894637</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>10.706717345296401</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1345,85 +1380,85 @@
       <c r="D10">
         <v>1984</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>35.63466013</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.53505138500000005</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.6055019370000001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>12.18036023</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>17.172875250000001</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8.8216500389999997</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>67.915677909999999</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>141.54660250000001</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>100.4911814</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>12.097912539999999</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>136.7076409</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>31.849312579999999</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>5.3995940600000001</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>59.232676390000002</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>85.163775060000006</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>67.279867260000003</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1.6052322809999999</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>5.5800535609999997</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>5.76</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-16.71</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.85</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>11.85</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>16.27</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>1.6052322810219</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>5.5800535591170402</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1435,87 +1470,90 @@
         <v>1981</v>
       </c>
       <c r="E11">
+        <v>2.2071592</v>
+      </c>
+      <c r="F11">
         <v>1026241</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>35.579916359999999</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3.4693615919999998</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>25.436552729999999</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>23.261915550000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>20.443752010000001</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>10.501888770000001</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>87.256456679999999</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>154.48998180000001</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>115.52305699999999</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>15.76377566</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>140.98989349999999</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>31.6146426</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>7.1464121770000002</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>95.566288940000007</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>90.431083419999993</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>59.384016510000002</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1.559086634</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>9.2218314390000007</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>5.88</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-16.25</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>0.81</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>11.66</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>16.87</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>1.5590866344615599</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>9.2218314403113606</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1526,85 +1564,85 @@
       <c r="D12">
         <v>1978</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>23.564875499999999</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>10.073287029999999</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>18.046297030000002</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>9.2703239560000004</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>78.939623409999996</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>144.1172981</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>104.3512534</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>12.806874710000001</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>111.41731160000001</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>27.165671790000001</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>6.1407332700000001</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>80.901669310000003</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>85.118608510000001</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>65.020902730000003</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1.3089653779999999</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>4.3358182149999998</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>5.73</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-16.239999999999998</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>0.83</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>12.08</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>16.89</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>1.30896537843321</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>4.3358182161524299</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1616,87 +1654,90 @@
         <v>1974</v>
       </c>
       <c r="E13">
+        <v>15.183832000000001</v>
+      </c>
+      <c r="F13">
         <v>1021505</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>26.071122819999999</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>7.5337631829999996</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>18.079925379999999</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>9.2875987339999995</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>80.761962100000005</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>143.37591219999999</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>106.6454181</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>9.3152467100000003</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>99.159317569999999</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>22.075082699999999</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>6.4157375969999997</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>57.65964529</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>83.006893270000006</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>61.035877229999997</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1.1945913610000001</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>3.2274811670000001</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>5.65</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-15.82</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>0.77</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>11.18</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>16.86</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>1.1945913605929099</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>3.2274811677912498</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1707,88 +1748,91 @@
       <c r="D14">
         <v>1969</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>988245</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>23.91320159</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.567283148</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>7.6518976209999998</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>11.98829813</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>15.72998522</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>8.0804421340000001</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>69.662675359999994</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>121.65464299999999</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>88.331833219999993</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>8.2521252910000005</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>87.051100309999995</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>18.810365040000001</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>5.4669043769999996</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>66.938963709999996</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>70.428093790000005</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>53.418789109999999</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1.236028063</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>6.0122531480000001</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>5.91</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-15.54</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>0.77</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>11.47</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>17.420000000000002</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="AE14">
         <v>1.23602806245993</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>6.0122531468254596</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1800,87 +1844,90 @@
         <v>1963</v>
       </c>
       <c r="E15">
+        <v>1.1844646000000001</v>
+      </c>
+      <c r="F15">
         <v>963066</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>21.706469739999999</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3.0458940289999998</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>29.744166060000001</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>18.336942749999999</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>15.741185140000001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>8.086195494</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>75.480221389999997</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>130.99582670000001</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>95.523629130000003</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>11.43718095</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>93.131153240000003</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>20.17262624</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>5.8628218240000001</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>79.916518330000002</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>80.527384510000005</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>58.7830078</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.156515312</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>8.5462113199999994</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>5.93</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-15.6</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.76</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>11.36</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>17.329999999999998</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>1.1565153122343701</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>8.5462113201762708</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1892,87 +1939,90 @@
         <v>1956</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>850040</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>31.42908199</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.78007243400000004</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.3790751050000001</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>7.9232678679999999</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>15.996802690000001</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>8.2175053980000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>69.607236290000003</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>128.15785310000001</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>93.563434599999994</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>12.54206248</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>79.524772220000003</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>20.353756409999999</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>5.9154641459999997</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>87.351150849999996</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>87.596664110000006</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>49.521229480000002</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.90785160600000003</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>3.8465715390000002</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>5.68</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-15.96</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.82</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>12.03</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>17.07</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>0.90785160631386996</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>3.84657153977244</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1983,88 +2033,88 @@
       <c r="D17">
         <v>1950</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>776541</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>19.862528520000001</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>7.7120602209999998</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>14.36761342</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>7.3805961800000004</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>65.396584110000006</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>112.12170639999999</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>82.797076129999994</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>10.750524670000001</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>71.449491980000005</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>16.450894009999999</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>4.7811652919999998</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>71.212838719999993</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>58.297609829999999</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>22.987427019999998</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1.2255989940000001</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>4.1709608749999996</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>5.91</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-15.84</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.8</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>11.84</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>17.27</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <v>1.22559899433874</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>4.17096087437778</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2076,87 +2126,90 @@
         <v>1939</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>729744</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>13.55731495</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.62921108599999998</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.4550196369999999</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6.2242535930000003</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>15.10724139</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>7.7605406549999998</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>78.642272590000005</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>133.52580090000001</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>95.169180440000005</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>11.57394936</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>58.214989989999999</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>10.422352829999999</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4.7118944269999998</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>56.73297676</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>58.658383139999998</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>30.79345635</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.992441095</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>2.8301245009999998</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>5.74</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-14.9</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.71</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>11.21</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>18.309999999999999</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <v>0.99244109492514099</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>2.8301245007147302</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2168,14 +2221,14 @@
         <v>1928</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>700139</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>11.04745481</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -2183,72 +2236,78 @@
         <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>11.557110160000001</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5.9368498140000003</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>66.41564941</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>119.0789915</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>85.668960979999994</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>7.2470843030000003</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>48.578557289999999</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>11.21504507</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>4.0952154040000002</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>56.274145769999997</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>58.315854999999999</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>36.109614350000001</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.83302486600000003</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
       <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>5.65</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-13.61</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.66</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>11.04</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>19.41</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="AE19">
         <v>0.83302486587909896</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2260,14 +2319,14 @@
         <v>1923</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>610118</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>10.38149014</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>0</v>
       </c>
@@ -2275,72 +2334,75 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>14.03494049</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>7.2097031769999997</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>94.033842309999997</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>148.71070940000001</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>103.6064308</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>8.853302545</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>38.000508310000001</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>10.09606516</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>4.5643813800000004</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>58.216631329999998</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>68.707777730000004</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>44.047126810000002</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.55307433299999997</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
       <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>5.57</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-14.54</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.68</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>10.62</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>18.29</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>0.55307433256435801</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2351,12 +2413,9 @@
       <c r="D21">
         <v>1918</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7.3583820170000003</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -2364,72 +2423,75 @@
         <v>0</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>17.457242019999999</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>5.6597832759999998</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>119.8888443</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>164.7383189</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>115.52285139999999</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>15.345894899999999</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>32.991000870000001</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>11.41652345</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>6.3343890930000004</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>73.383598469999995</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>88.629263600000002</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>38.070806900000001</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.37223598099999999</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
       <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>5.62</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-13.88</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.67</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>10.8</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>18.91</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>0.37223598087076998</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2440,12 +2502,12 @@
       <c r="D22">
         <v>1914</v>
       </c>
-      <c r="F22">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>5.9061384889999999</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>0</v>
       </c>
@@ -2453,72 +2515,75 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>13.89624476</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>7.1384556369999999</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>130.22617589999999</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>146.74706040000001</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>106.8880508</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>11.012766689999999</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>30.73235236</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>11.425011339999999</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>5.1651914090000002</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>81.453177089999997</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>90.038556850000006</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>49.879761610000003</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.34132435500000002</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>5.69</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-13.03</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.61</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>10.67</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>20.440000000000001</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>0.34132435520039101</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2529,15 +2594,12 @@
       <c r="D23">
         <v>1911</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>461394</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>11.01945081</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -2545,72 +2607,78 @@
         <v>0</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>12.04221364</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>6.1860458930000002</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>130.9593232</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>117.8351426</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>84.639942880000007</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9.3424394579999994</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>31.997216980000001</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>11.32166056</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>4.134146447</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>49.066896870000001</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>50.342505699999997</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>52.302672280000003</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.63559047199999996</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>5.58</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-12.06</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.59</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>11.23</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>22.27</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AE23">
         <v>0.63559047240669997</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2621,12 +2689,9 @@
       <c r="D24">
         <v>1908</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>9.8724192070000001</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
         <v>0</v>
       </c>
@@ -2634,72 +2699,75 @@
         <v>0</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>13.708285529999999</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>7.0419015900000002</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>181.1132149</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>132.65554309999999</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>93.427773799999997</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>14.541786439999999</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>31.68031818</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>11.78697874</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>4.3040591089999998</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>45.012101739999999</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>55.689386030000001</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>48.81939002</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.56887533599999995</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>5.49</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-11.99</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>10.58</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>22.35</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>0.56887533583031002</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -2710,12 +2778,12 @@
       <c r="D25">
         <v>1906</v>
       </c>
-      <c r="F25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>12.53712619</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
         <v>0</v>
       </c>
@@ -2723,72 +2791,75 @@
         <v>0</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>11.655100170000001</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>5.987186962</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>140.4771624</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>114.3813452</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>79.353984139999994</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>11.227809479999999</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>38.727734939999998</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>8.9633094520000007</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>4.0522680969999998</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>45.350675590000002</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>52.82389817</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>47.31877154</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.733147993</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>5.83</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-12.54</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.59</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>10.66</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>21.19</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>0.73314799326934998</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2799,12 +2870,9 @@
       <c r="D26">
         <v>1903</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>7.8980853040000003</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
         <v>0</v>
       </c>
@@ -2812,72 +2880,75 @@
         <v>0</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>10.96036404</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5.6303032799999997</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>131.70777670000001</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>111.26197019999999</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>72.752862190000002</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>5.982493399</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>24.838378179999999</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>8.3554479730000004</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>3.0510228920000002</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>35.889415190000001</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>44.683970289999998</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>34.326740829999999</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.55586775399999999</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
       <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>5.4</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-12.45</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>10.56</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>21.2</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>0.55586775344264105</v>
       </c>
-      <c r="AD26">
+      <c r="AF26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2889,14 +2960,14 @@
         <v>1900</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>255211</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>10.42137687</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
         <v>0</v>
       </c>
@@ -2904,72 +2975,75 @@
         <v>0</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>10.10878636</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5.192850602</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>111.93615939999999</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>103.91430010000001</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>67.939852450000004</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>4.1836056519999998</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>28.971503739999999</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>9.3461912290000004</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.7163073990000002</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>39.560980659999998</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>48.847261000000003</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>40.24938925</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.59310395599999999</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
       <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <v>5.47</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-12.33</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.59</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>10.84</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>21.33</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <v>0.59310395602324595</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -2980,12 +3054,9 @@
       <c r="D28">
         <v>1900</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>7.2207789590000004</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
         <v>0</v>
       </c>
@@ -2993,72 +3064,78 @@
         <v>0</v>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>12.73491714</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>6.541885422</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>130.40201519999999</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>124.93035190000001</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>82.146849259999996</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>8.294117945</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>23.50029644</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>9.7223098910000001</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>3.550137603</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>48.473771589999998</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>46.414620939999999</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>46.645883929999997</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.50631236400000001</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
       <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <v>5.69</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-12.53</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>10.46</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>21.26</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AE28">
         <v>0.50631236373509803</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3069,12 +3146,9 @@
       <c r="D29">
         <v>1899</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6.1690319300000001</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
@@ -3082,72 +3156,75 @@
         <v>0</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>13.59969109</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>6.9861169790000002</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>173.25350549999999</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>159.51870969999999</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>86.979779010000001</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>8.5941781939999995</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>21.502342200000001</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>8.8409981369999997</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2.5694818420000001</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>39.329729579999999</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>39.825717310000002</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>35.613137199999997</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.53991098299999996</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
       <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>5.68</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-12.75</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>10.01</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>21.27</v>
       </c>
-      <c r="AC29">
+      <c r="AE29">
         <v>0.53991098346396604</v>
       </c>
-      <c r="AD29">
+      <c r="AF29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3158,12 +3235,12 @@
       <c r="D30">
         <v>1898</v>
       </c>
-      <c r="F30">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>5.1385229360000002</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
         <v>0</v>
       </c>
@@ -3171,72 +3248,75 @@
         <v>0</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>12.89131207</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>6.6222249880000001</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>164.04721499999999</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>150.2750432</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>88.430668990000001</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>10.197385300000001</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>16.22316919</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>7.9315995849999998</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>3.585837143</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>43.413196839999998</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>44.381392220000002</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>55.636012649999998</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.36553988900000001</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
       <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
         <v>5.35</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-12.06</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.52</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>9.73</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>22.03</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <v>0.365539889095439</v>
       </c>
-      <c r="AD30">
+      <c r="AF30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3247,12 +3327,9 @@
       <c r="D31">
         <v>1897</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>7.05192496</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -3260,72 +3337,75 @@
         <v>0</v>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>10.63133981</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>5.4612846069999996</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>142.2641619</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>149.4567658</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>85.737679290000003</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>5.3643479349999996</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>22.50802697</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>6.2486940110000004</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>3.4670501360000001</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>41.480197250000003</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>60.776519299999997</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>53.864373120000003</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.37034083600000001</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
       <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>5.46</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-11.54</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.49</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>9.6199999999999992</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>22.75</v>
       </c>
-      <c r="AC31">
+      <c r="AE31">
         <v>0.370340836053769</v>
       </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -3336,12 +3416,9 @@
       <c r="D32">
         <v>1897</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>8.0133571280000009</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
         <v>0</v>
       </c>
@@ -3349,72 +3426,78 @@
         <v>0</v>
       </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>8.204436845</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>6.3218886940000001</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>124.3462622</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>133.00704150000001</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>73.797240590000001</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>4.7418456889999998</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>21.100323379999999</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>7.7805324679999996</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2.8410903580000002</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>43.14043247</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>54.931638730000003</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>48.467454570000001</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.38411967800000002</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
       <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
         <v>5.51</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-11.16</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.44</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>9.1300000000000008</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>24.32</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AE32">
         <v>0.38411967798216101</v>
       </c>
-      <c r="AD32">
+      <c r="AF32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -3425,12 +3508,9 @@
       <c r="D33">
         <v>1893</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>4.7755741269999996</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
         <v>0</v>
       </c>
@@ -3438,72 +3518,75 @@
         <v>0</v>
       </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>7.0237397159999997</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>5.4121082950000003</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>86.978352259999994</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>95.7881517</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>55.07802117</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>3.4124552110000002</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>12.38416395</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>5.2515515879999999</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>2.374200632</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>23.132592549999998</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>36.340566150000001</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>34.842313349999998</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.34078070999999999</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
       <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
         <v>6.02</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-10.65</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.4</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>8.83</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>25.99</v>
       </c>
-      <c r="AC33">
+      <c r="AE33">
         <v>0.34078071042930103</v>
       </c>
-      <c r="AD33">
+      <c r="AF33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -3515,14 +3598,14 @@
         <v>1890</v>
       </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>152506</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>5.337417651</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
         <v>0</v>
       </c>
@@ -3530,72 +3613,75 @@
         <v>0</v>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>7.8875633570000003</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>4.0518155849999999</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>57.458195590000003</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>67.694423839999999</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>37.585404130000001</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>2.4508905730000001</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>13.212663109999999</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>5.11633403</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>2.3130694389999999</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>16.83762407</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>29.45506039</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>32.986569699999997</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.44857022699999999</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
       <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
         <v>5.81</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-10.72</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.39</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>24.69</v>
       </c>
-      <c r="AC34">
+      <c r="AE34">
         <v>0.44857022647577699</v>
       </c>
-      <c r="AD34">
+      <c r="AF34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3606,12 +3692,9 @@
       <c r="D35">
         <v>1887</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2.5390379169999999</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
         <v>0</v>
       </c>
@@ -3619,72 +3702,75 @@
         <v>0</v>
       </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>4.5786488509999996</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>5.2920832259999999</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>46.566519220000004</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>56.725065829999998</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>29.240062859999998</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>2.4366752119999999</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>7.4156117129999997</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>3.1762838740000001</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>2.1539734639999999</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>14.80196069</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>26.04975615</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>25.245985300000001</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.284671061</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
       <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <v>6.21</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>-10.28</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.37</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>8.7200000000000006</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>27.19</v>
       </c>
-      <c r="AC35">
+      <c r="AE35">
         <v>0.28467106065405501</v>
       </c>
-      <c r="AD35">
+      <c r="AF35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -3695,12 +3781,9 @@
       <c r="D36">
         <v>1884</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>3.226321827</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
       <c r="H36">
         <v>0</v>
       </c>
@@ -3708,72 +3791,75 @@
         <v>0</v>
       </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>4.8206846280000004</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>5.5718324539999999</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>47.243443939999999</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>58.47061016</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>31.540807860000001</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>2.0787717780000001</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>8.1456370979999999</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>4.3905543659999999</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2.4360725749999999</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>23.552729209999999</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>27.747981280000001</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>24.956214639999999</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.29355782699999999</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
       <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
         <v>5.84</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>-10.72</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>0.38</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>8.18</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>25.09</v>
       </c>
-      <c r="AC36">
+      <c r="AE36">
         <v>0.29355782735341401</v>
       </c>
-      <c r="AD36">
+      <c r="AF36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -3785,14 +3871,14 @@
         <v>1881</v>
       </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>62260</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>2.3683861400000001</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
       <c r="H37">
         <v>0</v>
       </c>
@@ -3800,72 +3886,78 @@
         <v>0</v>
       </c>
       <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>4.7363743239999998</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5.4743851140000004</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>45.225328670000003</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>55.393248479999997</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>30.082083239999999</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>2.1269279659999998</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>7.8275816379999998</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>3.3335774630000001</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2.2606409510000001</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>19.07129449</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>26.149918880000001</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>21.07241689</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.29933483399999999</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
       <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <v>6.38</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>-10.9</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.38</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>8.17</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>24.99</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AE37">
         <v>0.29933483441842301</v>
       </c>
-      <c r="AD37">
+      <c r="AF37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -3876,12 +3968,9 @@
       <c r="D38">
         <v>1879</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2.6349525580000002</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
         <v>0</v>
       </c>
@@ -3889,72 +3978,75 @@
         <v>0</v>
       </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>4.626970783</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>5.3479345690000004</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>45.004464679999998</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>54.458401340000002</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>28.832089509999999</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>1.062383359</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>7.2264882410000002</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>3.1912906040000002</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>2.1641501679999999</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>18.666732960000001</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>24.389798769999999</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>21.39312138</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.296291425</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
       <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
         <v>6.2</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>-11.08</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.4</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>8.41</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>24.74</v>
       </c>
-      <c r="AC38">
+      <c r="AE38">
         <v>0.29629142532691799</v>
       </c>
-      <c r="AD38">
+      <c r="AF38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -3965,12 +4057,9 @@
       <c r="D39">
         <v>1878</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2.6821555639999999</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
         <v>0</v>
       </c>
@@ -3978,72 +4067,75 @@
         <v>0</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>4.6854872270000003</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>5.4155689090000001</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>44.806564940000001</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>54.410370610000001</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>29.941122579999998</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.95567334800000003</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>6.6095047070000001</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>3.6152733189999999</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>2.0059125679999998</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>15.513279989999999</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>26.756521339999999</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>24.458425429999998</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.24702406700000001</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
       <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
         <v>6.02</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>-10.53</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>0.38</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>8.25</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>25.39</v>
       </c>
-      <c r="AC39">
+      <c r="AE39">
         <v>0.24702406650744399</v>
       </c>
-      <c r="AD39">
+      <c r="AF39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -4054,12 +4146,9 @@
       <c r="D40">
         <v>1876</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>2.8828088429999998</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
         <v>0</v>
       </c>
@@ -4067,72 +4156,75 @@
         <v>0</v>
       </c>
       <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>5.1115229429999998</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>5.9079885159999996</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>49.4129535</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>57.635532329999997</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>31.936838529999999</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>2.1068626849999998</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>8.3636012110000006</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>4.2205816519999999</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>2.8621562950000001</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>37.825562990000002</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>34.219117009999998</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>19.66683776</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.24441312200000001</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
       <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
         <v>5.97</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>-10.53</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>0.39</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>8.44</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>25.08</v>
       </c>
-      <c r="AC40">
+      <c r="AE40">
         <v>0.244413121722453</v>
       </c>
-      <c r="AD40">
+      <c r="AF40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -4143,12 +4235,12 @@
       <c r="D41">
         <v>1875</v>
       </c>
-      <c r="F41">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>2.655738441</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
         <v>0</v>
       </c>
@@ -4156,72 +4248,78 @@
         <v>0</v>
       </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>3.7799416369999999</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>4.3689233190000003</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>39.622165510000002</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>47.48269956</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>27.710235690000001</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>1.0723594160000001</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>7.5242672180000003</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>2.2149330539999998</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>2.5788759460000001</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>15.47774336</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>20.89620425</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>15.046697549999999</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.360078181</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
       <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
         <v>6.03</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>-10.98</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>0.41</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>8.7799999999999994</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>25.1</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="AE41">
         <v>0.36007818108879802</v>
       </c>
-      <c r="AD41">
+      <c r="AF41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -4232,15 +4330,12 @@
       <c r="D42">
         <v>1873</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>25228</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>3.072464364</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
         <v>0</v>
       </c>
@@ -4248,72 +4343,75 @@
         <v>0</v>
       </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>4.2916864400000003</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4.9604070020000002</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>44.371972290000002</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>51.541652620000001</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>28.483422600000001</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>0.90867088399999996</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>6.4795773959999998</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>3.7048194190000001</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>2.0555966809999999</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>28.28575171</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>28.675738989999999</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>20.727425350000001</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.225960259</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
       <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
         <v>6.01</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>-10.51</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>0.39</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>8.48</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>25.46</v>
       </c>
-      <c r="AC42">
+      <c r="AE42">
         <v>0.22596025853979201</v>
       </c>
-      <c r="AD42">
+      <c r="AF42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -4324,12 +4422,9 @@
       <c r="D43">
         <v>1866</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>3.0282757170000001</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
@@ -4337,72 +4432,75 @@
         <v>0</v>
       </c>
       <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>4.466880089</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>5.1628989169999997</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>44.62161424</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>53.4040368</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>28.72873852</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>1.7817636990000001</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>7.3801231600000001</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>3.8093885350000001</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>2.1136162230000002</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>30.662755520000001</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>30.602022779999999</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>19.769029339999999</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.241164554</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
       <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
         <v>6.02</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>-10.8</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>0.39</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>8.48</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>25.62</v>
       </c>
-      <c r="AC43">
+      <c r="AE43">
         <v>0.241164553502107</v>
       </c>
-      <c r="AD43">
+      <c r="AF43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -4413,15 +4511,12 @@
       <c r="D44">
         <v>1859</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>6523</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>3.095094719</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
@@ -4429,72 +4524,75 @@
         <v>0</v>
       </c>
       <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>5.3422543569999998</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>6.1746719600000004</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>50.796800560000001</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>60.194901250000001</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>33.712664740000001</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>1.6952721260000001</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>8.6614973620000004</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>4.7866382520000004</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>3.2460233999999999</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>31.997302139999999</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>42.545816240000001</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>24.689390809999999</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.20358047200000001</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
       <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
         <v>5.9</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>-10.82</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>0.39</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>8.09</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>23.96</v>
       </c>
-      <c r="AC44">
+      <c r="AE44">
         <v>0.20358047224057699</v>
       </c>
-      <c r="AD44">
+      <c r="AF44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -4505,12 +4603,12 @@
       <c r="D45">
         <v>1852</v>
       </c>
-      <c r="F45">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>2.7902266459999998</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
@@ -4518,72 +4616,78 @@
         <v>0</v>
       </c>
       <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <v>5.1650843030000004</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>5.9698956809999997</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>40.247046419999997</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>56.102896350000002</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>27.612215429999999</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>1.9206193220000001</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>6.2224368630000004</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>4.0389239210000003</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>2.2409725460000001</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>20.32071032</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>28.87009552</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>21.928896890000001</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.215532258</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
       <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
         <v>6.11</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>-10.94</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>0.39</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>8.01</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>24.09</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="AE45">
         <v>0.21553225754619901</v>
       </c>
-      <c r="AD45">
+      <c r="AF45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -4594,12 +4698,9 @@
       <c r="D46">
         <v>1844</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>2.5461635760000001</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
@@ -4607,72 +4708,75 @@
         <v>0</v>
       </c>
       <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>4.5922853889999997</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>5.3078445780000001</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>38.900727600000003</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>50.682267520000003</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>24.572903820000001</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>1.9424969830000001</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>6.9578627580000001</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>3.0514132940000001</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>2.069293402</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>25.940931020000001</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>24.98478566</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>16.91474689</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.27848398800000002</v>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
       <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
         <v>6.17</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>-10.9</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>0.39</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>8.3800000000000008</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>24.88</v>
       </c>
-      <c r="AC46">
+      <c r="AE46">
         <v>0.278483988323316</v>
       </c>
-      <c r="AD46">
+      <c r="AF46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -4683,12 +4787,9 @@
       <c r="D47">
         <v>1837</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>4.5394402960000004</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
       <c r="H47">
         <v>0</v>
       </c>
@@ -4696,72 +4797,75 @@
         <v>0</v>
       </c>
       <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>5.0416104300000004</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>5.8271823979999997</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>39.525627399999998</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>53.106853399999999</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>26.321569490000002</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>0.88593366399999995</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>10.771492840000001</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>3.7579085110000001</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>2.0850528430000002</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>17.524694289999999</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>25.46589298</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>13.321281040000001</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.42297722900000001</v>
       </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
       <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
         <v>6.03</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>-11.18</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>0.4</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>8.36</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>24.66</v>
       </c>
-      <c r="AC47">
+      <c r="AE47">
         <v>0.42297722873725802</v>
       </c>
-      <c r="AD47">
+      <c r="AF47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -4772,15 +4876,12 @@
       <c r="D48">
         <v>1830</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2417</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2.6296803799999999</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
         <v>0</v>
       </c>
@@ -4788,72 +4889,75 @@
         <v>0</v>
       </c>
       <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>5.2341990349999996</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>6.0497797100000001</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>40.031828760000003</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>54.458742620000002</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>26.92533199</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>0.92133562400000002</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>5.937763329</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>3.9804582630000001</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>2.2085332289999999</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>18.369441030000001</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>29.88619868</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>20.150733389999999</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.19867910899999999</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
       <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
         <v>6.49</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>-11.01</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>0.37</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>7.8</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>24.53</v>
       </c>
-      <c r="AC48">
+      <c r="AE48">
         <v>0.198679109129177</v>
       </c>
-      <c r="AD48">
+      <c r="AF48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -4864,12 +4968,12 @@
       <c r="D49">
         <v>1823</v>
       </c>
-      <c r="F49">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>5.1287772570000003</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
         <v>0</v>
       </c>
@@ -4877,72 +4981,75 @@
         <v>0</v>
       </c>
       <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>4.143851475</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>4.7895367379999998</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>33.834996179999997</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>48.125034730000003</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>24.779174820000001</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>0.74477843399999999</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>11.90243458</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>4.2858880810000004</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>1.9376289120000001</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>28.918808240000001</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>26.23068954</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>11.51173904</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.453759882</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
       <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
         <v>6.12</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>-11.25</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>0.43</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>8.59</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>23.27</v>
       </c>
-      <c r="AC49">
+      <c r="AE49">
         <v>0.45375988160164799</v>
       </c>
-      <c r="AD49">
+      <c r="AF49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -4953,12 +5060,9 @@
       <c r="D50">
         <v>1815</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>2.3196948449999999</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
       <c r="H50">
         <v>0</v>
       </c>
@@ -4966,72 +5070,78 @@
         <v>0</v>
       </c>
       <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
         <v>4.5130188650000003</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>5.2162269290000003</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>37.912738959999999</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>48.067280760000003</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>23.972992229999999</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>0.78967503900000002</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>7.2202686500000004</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>2.6604024129999999</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>1.804132259</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>16.035196920000001</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>25.236452419999999</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>10.77827087</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.28610474000000002</v>
       </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
       <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
         <v>6.25</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>-11.44</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>0.43</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>8.86</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>24</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="AE50">
         <v>0.28610473967719402</v>
       </c>
-      <c r="AD50">
+      <c r="AF50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -5042,12 +5152,9 @@
       <c r="D51">
         <v>1808</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>2.422494339</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
       <c r="H51">
         <v>0</v>
       </c>
@@ -5055,72 +5162,75 @@
         <v>0</v>
       </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>3.9692025119999998</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>4.5876743820000003</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>38.893730750000003</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>47.167229820000003</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>24.639371300000001</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>0.74222964800000002</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>6.2238071939999999</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>3.3420255459999999</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>1.8543026920000001</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>17.40769006</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>29.386458170000001</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>16.762781109999999</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.21179167500000001</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
       <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
         <v>6.22</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>-11.43</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>0.41</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>8.2899999999999991</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>23.6</v>
       </c>
-      <c r="AC51">
+      <c r="AE51">
         <v>0.21179167485906</v>
       </c>
-      <c r="AD51">
+      <c r="AF51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -5131,12 +5241,9 @@
       <c r="D52">
         <v>1801</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>7.7377377389999999</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
       <c r="H52">
         <v>0</v>
       </c>
@@ -5144,66 +5251,69 @@
         <v>0</v>
       </c>
       <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>3.864315355</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>2.977629302</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>32.204515110000003</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>50.701127550000002</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>26.153130489999999</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>0.60666215099999998</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>19.19724991</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>5.0440573879999997</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>1.8418563080000001</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>13.403620699999999</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>31.846951740000002</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>16.044431889999998</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.60279709299999995</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
       <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
         <v>6.16</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>-11.42</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>0.43</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>8.6300000000000008</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>23.64</v>
       </c>
-      <c r="AC52">
+      <c r="AE52">
         <v>0.60279709237880097</v>
       </c>
-      <c r="AD52">
+      <c r="AF52">
         <v>0</v>
       </c>
     </row>
